--- a/app/251102-AZTOEIC-MockTest_GRADED/result_summary.xlsx
+++ b/app/251102-AZTOEIC-MockTest_GRADED/result_summary.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WILL\Desktop\ComputerScience\toeic_omr_app\app\251102-AZTOEIC-MockTest_GRADED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625CBB01-0988-4D05-821A-79EC78B565DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B19EA52-6C48-4FEB-A7A2-D85C65281958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="1200" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -70,7 +67,7 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>2025-11-08 23:01:14</t>
+    <t>2025-11-09 00:14:49</t>
   </si>
   <si>
     <t>New Economy 2018</t>
@@ -145,9 +142,6 @@
     <t>CACBCABACABBABCBABABBABBBCBBBCACCCDBADBBCDDCDBCCACDAACCCBBABCACBACABDCCABABADCBBBCCCBBADBCBDBBCBBBCCDBDDACDCDADBABDACBABBABCCBAACACABBCCABDCBDCDDABABBDDDBDBCDCDDABADBDCABCCDCBACCDBACCACCBBBCBAACDDDCCC</t>
   </si>
   <si>
-    <t>2025-11-08 23:01:15</t>
-  </si>
-  <si>
     <t>Ngo Thi Bich Ly</t>
   </si>
   <si>
@@ -175,6 +169,9 @@
     <t>CABACACBBACCABCBCACBBCBBCCBCABBCDABDAADADADCCCDCBCDDACDDBBAAADBADCACBDBAADCACCBDDABCDCBABBBBBCCCBADBCCDDCCDCABCDCCAABBBCAAABCCADCACADCDCABADABBDCADBDDDDBDBDAACDBCAADBDCCBADBDDDCCDABCCCCCCCCCACCCCCCCCC</t>
   </si>
   <si>
+    <t>2025-11-09 00:14:50</t>
+  </si>
+  <si>
     <t>Nguyen Dinh My Uyen</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>CACBCABACBCAABACCBBBAABABBACABBBCCCBCDCBCBDCDBDAACDACBCBCDDACBCBABDCBCCADCADDCBBCBBCAABDABBABBAACBBCCBDDCCACABDCBCADBBBBDADCBAAABBCACCBDACDAADADCBBBBDBDADACBDCDBBDBABDCABCCBDBDBDBBBCCABBBBCDCCCBABBCCC</t>
   </si>
   <si>
-    <t>2025-11-08 23:01:16</t>
-  </si>
-  <si>
     <t>Nguyen Vo Ngoc My</t>
   </si>
   <si>
@@ -250,6 +244,9 @@
     <t>CABBCAABABCABBABBACBAAACBBBAABBABADBADBACCDADBDCCCDACACCBDCCBBCCCADADACABCADDABCDAACDABDCABABBABBABDBBDDCBDCDADBABADCCBBCADCDCAAAACAADDCCBACBDADBDBABDBBCDBCADCDCBCCDBCCABBABBADABCDDCBDBCABCBCACACBCDCB</t>
   </si>
   <si>
+    <t>2025-11-09 00:14:51</t>
+  </si>
+  <si>
     <t>Pham Phan Tram Anh</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>CABDCDBBABCCACCBACABBCBBAABCABBCCDDAABBBBBDBADCBBCDAABADCDABCAABCDDABCBABBBACCBBCBCCAAACAABBBBDBDBBABACDACDDAABCACBACCBBAADBAAADBCCAABBADDCDBADDBABBBDDABDDBBDCDBBAAABBCCBCAAAADCACAAABDCCDBCBBADDCACBCB</t>
   </si>
   <si>
-    <t>2025-11-08 23:01:17</t>
-  </si>
-  <si>
     <t>Tran Kieu Thanh Ngoc</t>
   </si>
   <si>
@@ -346,6 +340,9 @@
     <t>CABBCABAABBCAACBAACBBABCCBBCAAACDBDABBAACCAADBDACCDABCAADDABABCBACDABCBDAAADDCBCCAACDACCCAAABBCBBACBDCDBCDCAAADCABBBCABCBBABBCABCACABCACDBCCADBDDABDADCAADABADADDACAABCCABCCCDDDCACCADBADCDBCDCDCDDDDBCB</t>
   </si>
   <si>
+    <t>2025-11-09 00:14:52</t>
+  </si>
+  <si>
     <t>Tran Mai Van Thanh</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>CACBCACBBCCABBCBABBBAACBBCBABABCACABCACDCABAABBCBCDAACCCBCAACACAADDACAAACCBADDBCACCDCDCDAADABBDDBABCBCDDCCDCDACBDCBABBABCCAADCAADCCDADCCAADCBDDCBABDBDAADDDBDDCDDBABDBCBCDDAABBAABCAAADABDBCCDCDDCDCABCB</t>
   </si>
   <si>
-    <t>2025-11-08 23:01:18</t>
-  </si>
-  <si>
     <t>Vo Song Huong</t>
   </si>
   <si>
@@ -404,6 +398,9 @@
   </si>
   <si>
     <t>CACBCABABBAABAABACBACABACACBBCBCCCDACADBCBBDDBDDACDABCCBCDABCADABADACCBCCBAADCBCDAACDABDCCBCBBAADACAABDDCBDAAADBABBABABCCBDCAAABADCACDBDAADBBDBDDDBABDBBBADCADCDDBCADBDCABCBDBBDBCCABCDBCCBBCDABAAACDCCC</t>
+  </si>
+  <si>
+    <t>2025-11-09 00:14:53</t>
   </si>
   <si>
     <t>Vo Xuan Truong</t>
@@ -793,17 +790,16 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -855,7 +851,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -864,45 +860,45 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>870</v>
+        <v>465</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -911,45 +907,45 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>715</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -958,45 +954,45 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>630</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1005,45 +1001,45 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>570</v>
+        <v>715</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1090,7 +1086,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1099,45 +1095,45 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1146,45 +1142,45 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>870</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1193,45 +1189,45 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1240,45 +1236,45 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E10">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1287,45 +1283,45 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
         <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
         <v>105</v>
-      </c>
-      <c r="N11" t="s">
-        <v>120</v>
-      </c>
-      <c r="O11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1334,45 +1330,45 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E12">
-        <v>435</v>
+        <v>325</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1381,45 +1377,45 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E13">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1428,45 +1424,45 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="E14">
-        <v>340</v>
+        <v>570</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1475,48 +1471,43 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E15">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O15">
-      <sortCondition descending="1" ref="E1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>